--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\jet_fuel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA497DCF-02B6-4151-9C4F-709956496BB4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
   <si>
     <t>Unit</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>heat_high</t>
-  </si>
-  <si>
-    <t>heat_split</t>
   </si>
   <si>
     <t>Auxilliary</t>
@@ -555,16 +552,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -817,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:R13" totalsRowShown="0">
-  <autoFilter ref="A1:R13" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:R14" totalsRowShown="0">
+  <autoFilter ref="A1:R14" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{D347015F-CF17-4A9D-8294-ADF748DF1773}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{D82A47BB-4363-4E36-A8AE-65EDC2C013A4}" name="Object_type"/>
@@ -1235,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1255,7 +1249,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -1264,16 +1258,16 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
-      </c>
-      <c r="I1" t="s">
-        <v>120</v>
       </c>
       <c r="J1" t="s">
         <v>88</v>
@@ -1291,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P1" t="s">
         <v>39</v>
@@ -1318,10 +1312,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
         <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -1331,10 +1325,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -1378,67 +1372,69 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>71</v>
+      <c r="A7" t="s">
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>90</v>
+      <c r="A8" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8">
-        <v>0.11929223999999999</v>
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>74</v>
+      <c r="A9" t="s">
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9">
+        <v>0.11929223999999999</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="4">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
@@ -1449,11 +1445,11 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>102</v>
+      <c r="A12" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -1465,11 +1461,11 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>96</v>
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -1479,11 +1475,22 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8 P10 S11" xr:uid="{30166407-D40D-4A67-99C1-251D943081A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9 S11" xr:uid="{30166407-D40D-4A67-99C1-251D943081A2}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1498,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8478C130-C296-4571-ABF4-62E91E9E2767}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1534,31 +1541,31 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" t="s">
-        <v>115</v>
-      </c>
       <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" t="s">
-        <v>111</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
         <v>106</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>107</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1576,22 +1583,22 @@
         <v>64</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1613,10 +1620,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1720,7 +1727,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>78</v>
@@ -1790,7 +1797,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>66</v>
@@ -1817,13 +1824,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>66</v>
@@ -1834,13 +1841,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1868,20 +1875,20 @@
       <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1890,30 +1897,30 @@
       <c r="J12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>42.75</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>1.6132075471698113</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9">
         <v>1.6285714285714283</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>6.7340067340067344</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>5.5096418732782366</v>
       </c>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>94</v>
@@ -1922,7 +1929,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1938,33 +1945,33 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2206,7 +2213,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="s">
@@ -2356,7 +2363,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
@@ -2504,7 +2511,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA497DCF-02B6-4151-9C4F-709956496BB4}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A33E09-9FCF-4848-BC50-36728E922D67}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
   <si>
     <t>Unit</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>heat_recovery</t>
-  </si>
-  <si>
-    <t>jetfuel</t>
   </si>
 </sst>
 </file>
@@ -1231,9 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1505,9 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8478C130-C296-4571-ABF4-62E91E9E2767}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1727,7 +1720,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>78</v>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A33E09-9FCF-4848-BC50-36728E922D67}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC212C26-504D-49D3-AB64-85014F02923E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -403,12 +403,6 @@
     <t>Relation_In1_In2</t>
   </si>
   <si>
-    <t>Relation_In1_In22</t>
-  </si>
-  <si>
-    <t>Relation_In1_In23</t>
-  </si>
-  <si>
     <t>Input3</t>
   </si>
   <si>
@@ -443,6 +437,12 @@
   </si>
   <si>
     <t>heat_recovery</t>
+  </si>
+  <si>
+    <t>Relation_In1_In3</t>
+  </si>
+  <si>
+    <t>Relation_In1_In4</t>
   </si>
 </sst>
 </file>
@@ -807,6 +807,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}" name="Table1" displayName="Table1" ref="A1:R14" totalsRowShown="0">
   <autoFilter ref="A1:R14" xr:uid="{0333CFC6-D067-4B12-B0A1-83E429D32CCD}"/>
@@ -849,8 +853,8 @@
     <tableColumn id="15" xr3:uid="{E758FC30-F120-4234-A984-DD9BB9F5CBE5}" name="Output3" dataDxfId="10"/>
     <tableColumn id="16" xr3:uid="{85570B5D-60DB-4C61-80EB-881EDB346388}" name="Output4" dataDxfId="9"/>
     <tableColumn id="10" xr3:uid="{40961C24-C288-48FE-96C9-C696058F1146}" name="Relation_In1_In2" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{E93572D0-6388-4D7C-A2BF-3805225F4F50}" name="Relation_In1_In22" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{BAF59A78-842A-475C-B900-52E45F0F2C02}" name="Relation_In1_In23" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E93572D0-6388-4D7C-A2BF-3805225F4F50}" name="Relation_In1_In3" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{BAF59A78-842A-475C-B900-52E45F0F2C02}" name="Relation_In1_In4" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{63A0B53D-07BC-4C95-B97C-243557E4A128}" name="Relation_In_Out" dataDxfId="5"/>
     <tableColumn id="25" xr3:uid="{44B35FDD-04C5-401A-9765-766FCD023027}" name="Relation_Out1_Out2" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{3E00680F-559F-4DED-989F-C435D3C0AEC7}" name="Relation_Out1_Out22" dataDxfId="3"/>
@@ -1228,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1244,7 +1248,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -1253,16 +1257,16 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
       </c>
       <c r="J1" t="s">
         <v>88</v>
@@ -1280,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P1" t="s">
         <v>39</v>
@@ -1426,7 +1430,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -1473,7 +1477,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>95</v>
@@ -1500,7 +1504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8478C130-C296-4571-ABF4-62E91E9E2767}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1522,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1534,19 +1540,19 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
         <v>108</v>
       </c>
       <c r="L1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -1790,7 +1796,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>66</v>
@@ -1910,7 +1916,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>95</v>
@@ -1922,7 +1928,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>95</v>
@@ -1951,7 +1957,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC212C26-504D-49D3-AB64-85014F02923E}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7549FB1A-8302-48D4-9133-24ED0CA1ED0D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-21480" yWindow="-20400" windowWidth="25020" windowHeight="19680" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
   <si>
     <t>Unit</t>
   </si>
@@ -394,12 +394,6 @@
     <t>Relation_Out1_Out2</t>
   </si>
   <si>
-    <t>Relation_Out1_Out22</t>
-  </si>
-  <si>
-    <t>Relation_Out1_Out23</t>
-  </si>
-  <si>
     <t>Relation_In1_In2</t>
   </si>
   <si>
@@ -443,6 +437,15 @@
   </si>
   <si>
     <t>Relation_In1_In4</t>
+  </si>
+  <si>
+    <t>Relation_Out1_Out3</t>
+  </si>
+  <si>
+    <t>Relation_Out1_Out4</t>
+  </si>
+  <si>
+    <t>Relation_In1_Out1</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,10 @@
     <tableColumn id="10" xr3:uid="{40961C24-C288-48FE-96C9-C696058F1146}" name="Relation_In1_In2" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{E93572D0-6388-4D7C-A2BF-3805225F4F50}" name="Relation_In1_In3" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{BAF59A78-842A-475C-B900-52E45F0F2C02}" name="Relation_In1_In4" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{63A0B53D-07BC-4C95-B97C-243557E4A128}" name="Relation_In_Out" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{63A0B53D-07BC-4C95-B97C-243557E4A128}" name="Relation_In1_Out1" dataDxfId="5"/>
     <tableColumn id="25" xr3:uid="{44B35FDD-04C5-401A-9765-766FCD023027}" name="Relation_Out1_Out2" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{3E00680F-559F-4DED-989F-C435D3C0AEC7}" name="Relation_Out1_Out22" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{17E13652-ACBE-480B-A89B-1AB97BFEAE60}" name="Relation_Out1_Out23" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{3E00680F-559F-4DED-989F-C435D3C0AEC7}" name="Relation_Out1_Out3" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{17E13652-ACBE-480B-A89B-1AB97BFEAE60}" name="Relation_Out1_Out4" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1248,7 +1251,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -1257,16 +1260,16 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>88</v>
@@ -1284,7 +1287,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P1" t="s">
         <v>39</v>
@@ -1430,7 +1433,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>95</v>
@@ -1505,7 +1508,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1528,10 +1531,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1540,31 +1543,31 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="O1" t="s">
         <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="Q1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1796,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>66</v>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>95</v>
@@ -1928,7 +1931,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1945,7 +1948,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>95</v>
@@ -1957,7 +1960,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/Model_Data_Base_jet_fuel_4_InOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/jet_fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7549FB1A-8302-48D4-9133-24ED0CA1ED0D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{384EF942-1BB3-4AF5-A4C8-1EAD5F73D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7DEB267-B2C0-4334-9E42-C34C68E84568}"/>
   <bookViews>
-    <workbookView xWindow="-21480" yWindow="-20400" windowWidth="25020" windowHeight="19680" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -808,10 +808,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,7 +1231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1456,9 +1454,6 @@
       <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="N12">
-        <v>1.4865950000000001E-3</v>
-      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
@@ -1471,9 +1466,6 @@
       </c>
       <c r="C13" t="s">
         <v>69</v>
-      </c>
-      <c r="N13">
-        <v>26.81</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1507,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8478C130-C296-4571-ABF4-62E91E9E2767}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
